--- a/data/s_vals/2024/anderson_shaun.xlsx
+++ b/data/s_vals/2024/anderson_shaun.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.004533508889512</v>
+        <v>0.3048080303191223</v>
       </c>
       <c r="C2" t="n">
-        <v>3.326709122536596</v>
+        <v>10.29869402782916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E2" t="n">
-        <v>1.975618444095408</v>
+        <v>645.3272768299601</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.798889841029688</v>
+        <v>656.7362685246924</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001406456583070703</v>
+        <v>3.996802888650564e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E3" t="n">
-        <v>47.04425097037385</v>
+        <v>2367095152636972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.63109012950763</v>
+        <v>2367095152636976</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2801774315799359</v>
+        <v>0.01514828764759746</v>
       </c>
       <c r="C4" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D4" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E4" t="n">
-        <v>1.975618444095408</v>
+        <v>645.3272768299601</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.858286994343442</v>
+        <v>673.2276261410919</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/anderson_shaun.xlsx
+++ b/data/s_vals/2024/anderson_shaun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>656.7362685246924</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>2367095152636976</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>673.2276261410919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/anderson_shaun.xlsx
+++ b/data/s_vals/2024/anderson_shaun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,9 +489,6 @@
       <c r="G2" t="n">
         <v>656.7362685246924</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,9 +514,6 @@
       <c r="G3" t="n">
         <v>2367095152636976</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -549,9 +538,6 @@
       </c>
       <c r="G4" t="n">
         <v>673.2276261410919</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/anderson_shaun.xlsx
+++ b/data/s_vals/2024/anderson_shaun.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3048080303191223</v>
+        <v>0.3464964993005633</v>
       </c>
       <c r="C2" t="n">
-        <v>10.29869402782916</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>645.3272768299601</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>656.7362685246924</v>
+        <v>257.2710986203395</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.996802888650564e-14</v>
+        <v>1.257882686900302e-12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D3" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E3" t="n">
-        <v>2367095152636972</v>
+        <v>5548678842208.939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2367095152636976</v>
+        <v>5548678842212.359</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01514828764759746</v>
+        <v>0.02258322285507441</v>
       </c>
       <c r="C4" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E4" t="n">
-        <v>645.3272768299601</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>673.2276261410919</v>
+        <v>265.644801492178</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
